--- a/tables/Anc_Table_w_Orig.xlsx
+++ b/tables/Anc_Table_w_Orig.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Austin/Documents/School/Dissertation/disseRtation/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E5E890-AEA1-EA46-B13E-EEB916E49B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710662CF-D1F1-0940-B8EB-350523E1D223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11440" windowWidth="17920" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2646,8 +2656,8 @@
   <dimension ref="A2:AQ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <pane xSplit="9" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
